--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/123/correct_predictions_123.xlsx
@@ -476,52 +476,52 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -716,52 +716,52 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -776,52 +776,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -836,52 +836,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1556,37 +1556,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1616,17 +1616,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-22</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2237,21 +2237,21 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2276,52 +2276,52 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2336,52 +2336,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2396,42 +2396,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2456,42 +2456,42 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2516,17 +2516,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2537,21 +2537,21 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2561,147 +2561,147 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2717,21 +2717,21 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2747,21 +2747,21 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2777,21 +2777,21 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2807,16 +2807,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2826,102 +2826,102 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Temp Max Altitude 98ft</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/123/correct_predictions_123.xlsx
@@ -476,52 +476,52 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IMU calibration required Calibrate IMU .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -716,52 +716,52 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -776,52 +776,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -836,52 +836,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1556,37 +1556,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1616,17 +1616,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3-22</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2237,21 +2237,21 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2276,52 +2276,52 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2336,52 +2336,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2396,42 +2396,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2456,42 +2456,42 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2516,17 +2516,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2537,21 +2537,21 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2561,147 +2561,147 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2717,21 +2717,21 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2747,21 +2747,21 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2777,21 +2777,21 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2807,16 +2807,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2826,102 +2826,102 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Temp Max Altitude 98ft</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
